--- a/data/trans_orig/P1405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F60A32-A972-4397-B4C9-9A58F4EFAC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD122BC6-DAB6-460D-81C9-72EE961BAC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A10BED1D-47F7-456C-A19C-5DC7FF364F8E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{665A81DB-4FE9-4BEE-8105-50AE74CC0A48}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="220">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,628 +94,583 @@
     <t>1,05%</t>
   </si>
   <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1154,7 +1109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ECD433-28F9-4F95-A63B-0668AF51F204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA2465B-8B24-4A9C-9E48-64B7E5AFC95A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1553,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -1565,13 +1520,13 @@
         <v>12602</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1586,13 +1541,13 @@
         <v>579257</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>547</v>
@@ -1601,13 +1556,13 @@
         <v>580990</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>1092</v>
@@ -1616,13 +1571,13 @@
         <v>1160247</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1633,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1696,37 +1651,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1741,13 +1696,13 @@
         <v>7334</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -1756,10 +1711,10 @@
         <v>18969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>56</v>
@@ -1795,10 +1750,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>920</v>
@@ -1807,13 +1762,13 @@
         <v>1008822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>1849</v>
@@ -1822,13 +1777,13 @@
         <v>2019435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1884,7 +1839,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1902,7 +1857,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1917,7 +1872,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1932,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1902,13 @@
         <v>7021</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -1962,13 +1917,13 @@
         <v>11913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -1977,13 +1932,13 @@
         <v>18934</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,7 +1974,7 @@
         <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="M18" s="7">
         <v>1377</v>
@@ -2028,13 +1983,13 @@
         <v>1515863</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,7 +2045,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2108,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2123,7 +2078,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2138,7 +2093,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2108,13 @@
         <v>5963</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -2168,13 +2123,13 @@
         <v>26521</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -2183,13 +2138,13 @@
         <v>32484</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2204,13 +2159,13 @@
         <v>941776</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
         <v>980</v>
@@ -2219,13 +2174,13 @@
         <v>1025380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>1885</v>
@@ -2234,13 +2189,13 @@
         <v>1967156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2269,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2329,7 +2284,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2344,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2314,13 @@
         <v>28765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -2374,13 +2329,13 @@
         <v>62730</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2389,13 +2344,13 @@
         <v>91495</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2365,13 @@
         <v>3398014</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H26" s="7">
         <v>3239</v>
@@ -2425,13 +2380,13 @@
         <v>3491186</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>6423</v>
@@ -2440,13 +2395,13 @@
         <v>6889199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2457,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2523,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EBCA54-4CAD-4A6B-B490-16DAE2F8284D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCB8B9D-5E9A-4D12-8D4B-D26A0285438F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2540,7 +2495,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2653,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2668,7 +2623,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2683,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2713,13 +2668,13 @@
         <v>3990</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2728,13 +2683,13 @@
         <v>3990</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2707,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -2764,13 +2719,13 @@
         <v>109370</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M6" s="7">
         <v>224</v>
@@ -2779,13 +2734,13 @@
         <v>225916</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2889,7 +2844,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2859,13 @@
         <v>2750</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -2922,10 +2877,10 @@
         <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2934,10 +2889,10 @@
         <v>10791</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>141</v>
@@ -2955,10 +2910,10 @@
         <v>555504</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -2970,13 +2925,13 @@
         <v>551437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>1080</v>
@@ -2985,13 +2940,13 @@
         <v>1106942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,7 +3002,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3065,37 +3020,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3065,13 @@
         <v>6949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3125,13 +3080,13 @@
         <v>13738</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3140,13 +3095,13 @@
         <v>20687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3116,13 @@
         <v>1015482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>965</v>
@@ -3176,13 +3131,13 @@
         <v>1029175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>1909</v>
@@ -3191,13 +3146,13 @@
         <v>2044657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3208,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3271,7 +3226,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3286,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3301,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3271,13 @@
         <v>5656</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3331,13 +3286,13 @@
         <v>7231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3346,13 +3301,13 @@
         <v>12887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3322,13 @@
         <v>753896</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="H18" s="7">
         <v>729</v>
@@ -3382,13 +3337,13 @@
         <v>777780</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M18" s="7">
         <v>1420</v>
@@ -3397,13 +3352,13 @@
         <v>1531676</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,7 +3414,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3477,7 +3432,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3492,22 +3447,22 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3477,13 @@
         <v>10050</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -3537,13 +3492,13 @@
         <v>22732</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -3552,13 +3507,13 @@
         <v>32781</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3528,13 @@
         <v>927517</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>939</v>
@@ -3588,13 +3543,13 @@
         <v>1021047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>1863</v>
@@ -3603,13 +3558,13 @@
         <v>1948565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3638,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3698,7 +3653,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3713,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3683,13 @@
         <v>25404</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3743,13 +3698,13 @@
         <v>55732</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -3758,13 +3713,13 @@
         <v>81136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3734,13 @@
         <v>3368946</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="H26" s="7">
         <v>3287</v>
@@ -3794,13 +3749,13 @@
         <v>3488810</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>6496</v>
@@ -3809,13 +3764,13 @@
         <v>6857756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3826,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AEBD29-4EE4-4766-9C6B-538D1EF8DC6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E35F5C2-4E62-4514-A034-2EB6766B5EB4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3909,7 +3864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4019,7 +3974,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -4034,7 +3989,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -4049,7 +4004,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -4073,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4088,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4103,7 +4058,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4079,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4139,7 +4094,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4154,7 +4109,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,7 +4180,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -4240,7 +4195,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -4255,7 +4210,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -4279,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4294,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4309,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4285,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4345,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4360,7 +4315,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,7 +4371,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4431,7 +4386,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -4446,7 +4401,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -4461,7 +4416,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -4485,7 +4440,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4500,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4515,7 +4470,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,7 +4491,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4551,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4566,7 +4521,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,7 +4577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4637,7 +4592,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -4652,7 +4607,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -4667,7 +4622,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -4691,7 +4646,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4706,7 +4661,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4721,7 +4676,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,7 +4697,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4757,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4772,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,7 +4783,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4843,7 +4798,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4858,7 +4813,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4873,7 +4828,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4897,7 +4852,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4912,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4927,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,7 +4903,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4963,7 +4918,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4978,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,7 +5004,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -5064,7 +5019,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -5073,13 +5028,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -5103,7 +5058,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5118,7 +5073,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5133,7 +5088,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,7 +5109,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5169,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5184,7 +5139,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,7 +5181,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -5240,7 +5195,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD122BC6-DAB6-460D-81C9-72EE961BAC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCE1069-8800-4CC1-8C37-1AF1D53F5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{665A81DB-4FE9-4BEE-8105-50AE74CC0A48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30AAB3C9-236C-49CC-8D5B-831B1BB34777}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="228">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -94,7 +94,7 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>6,25%</t>
   </si>
   <si>
     <t>0,51%</t>
@@ -118,7 +118,7 @@
     <t>98,95%</t>
   </si>
   <si>
-    <t>94,91%</t>
+    <t>93,75%</t>
   </si>
   <si>
     <t>99,49%</t>
@@ -127,7 +127,7 @@
     <t>97,46%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -139,528 +139,555 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>0,12%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
@@ -668,9 +695,6 @@
   </si>
   <si>
     <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1109,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA2465B-8B24-4A9C-9E48-64B7E5AFC95A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5631C77-A09E-4586-87F6-D4B8CA65C23B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1508,10 +1532,10 @@
         <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -1520,13 +1544,13 @@
         <v>12602</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1541,13 +1565,13 @@
         <v>579257</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>547</v>
@@ -1556,13 +1580,13 @@
         <v>580990</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>1092</v>
@@ -1571,13 +1595,13 @@
         <v>1160247</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,7 +1657,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1651,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1666,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1681,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,13 +1720,13 @@
         <v>7334</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -1711,13 +1735,13 @@
         <v>18969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1726,13 +1750,13 @@
         <v>26303</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1747,13 +1771,13 @@
         <v>1010613</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>920</v>
@@ -1762,13 +1786,13 @@
         <v>1008822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1849</v>
@@ -1777,13 +1801,13 @@
         <v>2019435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,7 +1863,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1857,7 +1881,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1872,7 +1896,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1887,7 +1911,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,13 +1926,13 @@
         <v>7021</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -1917,13 +1941,13 @@
         <v>11913</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -1932,13 +1956,13 @@
         <v>18934</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1977,13 @@
         <v>750602</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>694</v>
@@ -1968,13 +1992,13 @@
         <v>765261</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>1377</v>
@@ -1983,13 +2007,13 @@
         <v>1515863</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2069,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2063,7 +2087,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2078,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2093,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2132,13 @@
         <v>5963</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -2123,13 +2147,13 @@
         <v>26521</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -2138,13 +2162,13 @@
         <v>32484</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2183,13 @@
         <v>941776</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>980</v>
@@ -2174,13 +2198,13 @@
         <v>1025380</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>1885</v>
@@ -2189,13 +2213,13 @@
         <v>1967156</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2284,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2299,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2338,13 @@
         <v>28765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -2329,13 +2353,13 @@
         <v>62730</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>81</v>
@@ -2344,13 +2368,13 @@
         <v>91495</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2389,13 @@
         <v>3398014</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>3239</v>
@@ -2380,13 +2404,13 @@
         <v>3491186</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>6423</v>
@@ -2395,13 +2419,13 @@
         <v>6889199</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,7 +2481,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCB8B9D-5E9A-4D12-8D4B-D26A0285438F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9253FFA6-0B2A-41B1-8739-BD20FF191424}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2495,7 +2519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2608,7 +2632,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2623,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2638,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2683,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2668,13 +2692,13 @@
         <v>3990</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2683,13 +2707,13 @@
         <v>3990</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,7 +2731,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -2719,13 +2743,13 @@
         <v>109370</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M6" s="7">
         <v>224</v>
@@ -2734,13 +2758,13 @@
         <v>225916</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2844,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2883,13 @@
         <v>2750</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -2877,10 +2901,10 @@
         <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2889,13 +2913,13 @@
         <v>10791</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,10 +2934,10 @@
         <v>555504</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -2925,13 +2949,13 @@
         <v>551437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>1080</v>
@@ -2940,13 +2964,13 @@
         <v>1106942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,7 +3026,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3020,7 +3044,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3035,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3050,7 +3074,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3089,13 @@
         <v>6949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3080,13 +3104,13 @@
         <v>13738</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3095,13 +3119,13 @@
         <v>20687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3143,10 @@
         <v>153</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>965</v>
@@ -3131,13 +3155,13 @@
         <v>1029175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>1909</v>
@@ -3146,13 +3170,13 @@
         <v>2044657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3232,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3226,7 +3250,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3241,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3256,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3295,13 @@
         <v>5656</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3286,13 +3310,13 @@
         <v>7231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -3301,13 +3325,13 @@
         <v>12887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3346,13 @@
         <v>753896</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H18" s="7">
         <v>729</v>
@@ -3337,13 +3361,13 @@
         <v>777780</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>1420</v>
@@ -3352,13 +3376,13 @@
         <v>1531676</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,7 +3438,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3432,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3447,7 +3471,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3462,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3501,13 @@
         <v>10050</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -3492,13 +3516,13 @@
         <v>22732</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -3507,13 +3531,13 @@
         <v>32781</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3552,13 @@
         <v>927517</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
         <v>939</v>
@@ -3543,13 +3567,13 @@
         <v>1021047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>1863</v>
@@ -3558,13 +3582,13 @@
         <v>1948565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,7 +3662,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3653,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3668,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3707,13 @@
         <v>25404</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>188</v>
+        <v>57</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -3698,13 +3722,13 @@
         <v>55732</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -3713,13 +3737,13 @@
         <v>81136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3758,13 @@
         <v>3368946</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>3287</v>
@@ -3749,13 +3773,13 @@
         <v>3488810</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M26" s="7">
         <v>6496</v>
@@ -3764,13 +3788,13 @@
         <v>6857756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3850,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +3871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E35F5C2-4E62-4514-A034-2EB6766B5EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6A78CC-2244-4C7C-9D8E-9159C6BC3717}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3864,7 +3888,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3974,7 +3998,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -3989,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -4004,7 +4028,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -4028,7 +4052,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4043,7 +4067,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4058,7 +4082,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4094,7 +4118,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4109,7 +4133,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4204,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -4195,7 +4219,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -4210,7 +4234,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -4234,7 +4258,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4249,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4264,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4300,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4315,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,7 +4395,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4386,7 +4410,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -4401,7 +4425,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -4416,7 +4440,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -4440,7 +4464,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4455,7 +4479,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4470,7 +4494,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4506,7 +4530,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4521,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,7 +4601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4592,7 +4616,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -4607,7 +4631,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -4622,7 +4646,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -4646,7 +4670,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4661,7 +4685,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4676,7 +4700,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4712,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4727,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,7 +4807,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4798,7 +4822,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4813,7 +4837,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4828,7 +4852,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4852,7 +4876,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4867,7 +4891,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4882,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4918,7 +4942,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4933,7 +4957,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,7 +5028,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -5019,7 +5043,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -5034,7 +5058,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -5058,7 +5082,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5073,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5088,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,7 +5133,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5124,7 +5148,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5139,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,7 +5219,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1405-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A958BAD-E114-4F83-B475-FBBA4DEA7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78D320DC-80C2-48DC-9196-79F92CB4A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D38DF08-6281-476E-A2BD-7C1290F6CCA5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D44844E4-C2E8-44F1-AE2B-090006E48323}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="182">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,514 +66,460 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
   </si>
   <si>
     <t>97,82%</t>
@@ -1048,8 +994,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B2191-1D34-484A-A0EF-C0F13F646EDD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611015A9-2BCD-4913-9274-79F34EFFCB9B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1166,10 +1112,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8447</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1181,85 +1127,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1172</v>
+        <v>5328</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>1172</v>
+        <v>13774</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>667</v>
       </c>
       <c r="D5" s="7">
-        <v>115765</v>
+        <v>695022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>645</v>
       </c>
       <c r="I5" s="7">
-        <v>110733</v>
+        <v>691722</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>220</v>
+        <v>1312</v>
       </c>
       <c r="N5" s="7">
-        <v>226498</v>
+        <v>1386745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1268,54 +1214,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1324,97 +1270,97 @@
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>8447</v>
+        <v>7334</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>4155</v>
+        <v>18969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>12602</v>
+        <v>26303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>545</v>
+        <v>929</v>
       </c>
       <c r="D8" s="7">
-        <v>579257</v>
+        <v>1010613</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>547</v>
+        <v>920</v>
       </c>
       <c r="I8" s="7">
-        <v>580990</v>
+        <v>1008822</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1092</v>
+        <v>1849</v>
       </c>
       <c r="N8" s="7">
-        <v>1160247</v>
+        <v>2019435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,153 +1369,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1027791</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2045738</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>7334</v>
+        <v>7021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11913</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7">
         <v>17</v>
       </c>
-      <c r="I10" s="7">
-        <v>18969</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="7">
-        <v>24</v>
-      </c>
       <c r="N10" s="7">
-        <v>26303</v>
+        <v>18934</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>929</v>
+        <v>683</v>
       </c>
       <c r="D11" s="7">
-        <v>1010613</v>
+        <v>750602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>920</v>
+        <v>694</v>
       </c>
       <c r="I11" s="7">
-        <v>1008822</v>
+        <v>765261</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>1849</v>
+        <v>1377</v>
       </c>
       <c r="N11" s="7">
-        <v>2019435</v>
+        <v>1515863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,153 +1524,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1027791</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2045738</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>7021</v>
+        <v>5963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>11913</v>
+        <v>26521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>18934</v>
+        <v>32484</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>683</v>
+        <v>905</v>
       </c>
       <c r="D14" s="7">
-        <v>750602</v>
+        <v>941776</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>694</v>
+        <v>980</v>
       </c>
       <c r="I14" s="7">
-        <v>765261</v>
+        <v>1025380</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>1377</v>
+        <v>1885</v>
       </c>
       <c r="N14" s="7">
-        <v>1515863</v>
+        <v>1967156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1733,153 +1679,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>5963</v>
+        <v>28765</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>26521</v>
+        <v>62730</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="7">
         <v>81</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="7">
-        <v>28</v>
-      </c>
       <c r="N16" s="7">
-        <v>32484</v>
+        <v>91495</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>905</v>
+        <v>3184</v>
       </c>
       <c r="D17" s="7">
-        <v>941776</v>
+        <v>3398014</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>980</v>
+        <v>3239</v>
       </c>
       <c r="I17" s="7">
-        <v>1025380</v>
+        <v>3491186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>1885</v>
+        <v>6423</v>
       </c>
       <c r="N17" s="7">
-        <v>1967156</v>
+        <v>6889199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,217 +1834,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553916</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>25</v>
-      </c>
-      <c r="D19" s="7">
-        <v>28765</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="7">
-        <v>56</v>
-      </c>
-      <c r="I19" s="7">
-        <v>62730</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="7">
-        <v>81</v>
-      </c>
-      <c r="N19" s="7">
-        <v>91495</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3184</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3398014</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3239</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3491186</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6423</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6889199</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553916</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980694</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2111,8 +1901,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6C6537-EAD9-4BF4-B39B-527CD406920F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BF971B-E156-4402-ADBB-831C81379081}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2128,7 +1918,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2229,100 +2019,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="7">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
       <c r="I4" s="7">
-        <v>3990</v>
+        <v>12032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>3990</v>
+        <v>14781</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>650</v>
+      </c>
+      <c r="D5" s="7">
+        <v>672050</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="7">
-        <v>116546</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="7">
-        <v>111</v>
+        <v>654</v>
       </c>
       <c r="I5" s="7">
-        <v>109370</v>
+        <v>660807</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>224</v>
+        <v>1304</v>
       </c>
       <c r="N5" s="7">
-        <v>225916</v>
+        <v>1332858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,153 +2121,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>2750</v>
+        <v>6949</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>8042</v>
+        <v>13738</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>10791</v>
+        <v>20687</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>537</v>
+        <v>944</v>
       </c>
       <c r="D8" s="7">
-        <v>555504</v>
+        <v>1015482</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="7">
+        <v>965</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1029175</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1909</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2044657</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>543</v>
-      </c>
-      <c r="I8" s="7">
-        <v>551437</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1080</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1106942</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,153 +2276,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5656</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
-        <v>6949</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>7231</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>12</v>
+      </c>
+      <c r="N10" s="7">
+        <v>12887</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13738</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="7">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7">
-        <v>20687</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>944</v>
+        <v>691</v>
       </c>
       <c r="D11" s="7">
-        <v>1015482</v>
+        <v>753896</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>729</v>
+      </c>
+      <c r="I11" s="7">
+        <v>777780</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1420</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1531676</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="7">
-        <v>965</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1029175</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1909</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2044657</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,153 +2431,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>5656</v>
+        <v>10050</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="7">
+        <v>20</v>
+      </c>
+      <c r="I13" s="7">
+        <v>22732</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>28</v>
+      </c>
+      <c r="N13" s="7">
+        <v>32781</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7231</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>12887</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>691</v>
+        <v>924</v>
       </c>
       <c r="D14" s="7">
-        <v>753896</v>
+        <v>927517</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="7">
+        <v>939</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1021047</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1863</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1948565</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="7">
-        <v>729</v>
-      </c>
-      <c r="I14" s="7">
-        <v>777780</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1420</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1531676</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,153 +2586,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>10050</v>
+        <v>25404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="7">
+        <v>51</v>
+      </c>
+      <c r="I16" s="7">
+        <v>55732</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" s="7">
+        <v>73</v>
+      </c>
+      <c r="N16" s="7">
+        <v>81136</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22732</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M16" s="7">
-        <v>28</v>
-      </c>
-      <c r="N16" s="7">
-        <v>32781</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>924</v>
+        <v>3209</v>
       </c>
       <c r="D17" s="7">
-        <v>927517</v>
+        <v>3368946</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3287</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3488810</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="7">
-        <v>939</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1021047</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6857756</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1863</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1948565</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,217 +2741,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>25404</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="7">
-        <v>51</v>
-      </c>
-      <c r="I19" s="7">
-        <v>55732</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M19" s="7">
-        <v>73</v>
-      </c>
-      <c r="N19" s="7">
-        <v>81136</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3368946</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3287</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3488810</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6496</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6857756</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>112</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
